--- a/biology/Zoologie/Cyanoramphus/Cyanoramphus.xlsx
+++ b/biology/Zoologie/Cyanoramphus/Cyanoramphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cyanoramphus a été décrit par Charles-Lucien Bonaparte (1803-1857). Il regroupe plusieurs espèces de perroquets communément appelés kakarikis (mot signifiant petit perroquet en māori). Elles se distinguent par un corps arrondi, une queue longue et fine, un plumage de base entièrement vert à l'exception du masque facial. Ces Psittacinae possèdent un bec gris foncé, des pattes grises et des iris orange. Aucun dimorphisme sexuel notable n'est remarqué au sein de ce genre. Toutes ses espèces sont menacées d'extinction dans leurs habitats naturels et certaines ont déjà disparu. Seul le Kakariki à front rouge ou Perruche de Sparrman est très commun dans les élevages[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cyanoramphus a été décrit par Charles-Lucien Bonaparte (1803-1857). Il regroupe plusieurs espèces de perroquets communément appelés kakarikis (mot signifiant petit perroquet en māori). Elles se distinguent par un corps arrondi, une queue longue et fine, un plumage de base entièrement vert à l'exception du masque facial. Ces Psittacinae possèdent un bec gris foncé, des pattes grises et des iris orange. Aucun dimorphisme sexuel notable n'est remarqué au sein de ce genre. Toutes ses espèces sont menacées d'extinction dans leurs habitats naturels et certaines ont déjà disparu. Seul le Kakariki à front rouge ou Perruche de Sparrman est très commun dans les élevages.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 6.4, 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 6.4, 2016) :
 †Cyanoramphus zealandicus – Perruche de Tahiti
 †Cyanoramphus ulietanus – Perruche de Raiatea
 Cyanoramphus saisseti – Perruche de Nouvelle-Calédonie
